--- a/Assets/Shared/ExcelImporter/Excels/Player/ArtifactDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/ArtifactDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F989EF8F-C746-474A-84EC-A107523B3461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-216" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArtifactExcelDatas" sheetId="1" r:id="rId1"/>
@@ -48,31 +49,19 @@
     <t>은빛 반지</t>
   </si>
   <si>
-    <t>1,6,11</t>
-  </si>
-  <si>
     <t>#Prob = 상점 뽑기에서 사용</t>
   </si>
   <si>
     <t>엘프의 팔찌</t>
   </si>
   <si>
-    <t>2,7,12</t>
-  </si>
-  <si>
     <t>빛나는 돌</t>
   </si>
   <si>
     <t>드래곤의 목걸이</t>
   </si>
   <si>
-    <t>4,9,14</t>
-  </si>
-  <si>
     <t>보석 귀걸이</t>
-  </si>
-  <si>
-    <t>5,10,15</t>
   </si>
   <si>
     <t>여왕의 가호</t>
@@ -115,28 +104,6 @@
   </si>
   <si>
     <t>ImagePath</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6,7,1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10,14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,9</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -226,24 +193,42 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3,8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,13</t>
-    </r>
+    <t>1,2,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -597,32 +582,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,33 +633,33 @@
         <v>7</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="8">
         <v>10</v>
@@ -707,11 +692,11 @@
         <v>0</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -725,15 +710,15 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
@@ -766,11 +751,11 @@
         <v>0</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -784,15 +769,15 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -825,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
@@ -841,15 +826,15 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -882,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
@@ -898,15 +883,15 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -939,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -955,15 +940,15 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9">
         <v>8</v>
@@ -996,95 +981,95 @@
         <v>0</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="9" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
